--- a/Setting.xlsx
+++ b/Setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_python\excel2csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0B95B9-649D-42AF-BA23-20C56A88EC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C8523D-2F89-4451-8914-9AFE4E4A57DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11730" yWindow="3900" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>int</t>
     <phoneticPr fontId="2"/>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>CodeOutputPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EnumOutputPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EnumTemplatePath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Template_UE4Defines.h</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -559,7 +571,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -694,10 +706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96179D83-B3E9-448E-8D40-FF1D29C5B095}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -705,18 +717,22 @@
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -729,8 +745,14 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -743,8 +765,14 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -757,8 +785,14 @@
       <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>18</v>
@@ -769,18 +803,26 @@
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A1:D6">
+  <conditionalFormatting sqref="A1:F6">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($A1="#",A$1="#")</formula>
     </cfRule>

--- a/Setting.xlsx
+++ b/Setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_python\excel2csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C8523D-2F89-4451-8914-9AFE4E4A57DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3840D9E2-C414-42CC-B931-DC811310810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>int</t>
     <phoneticPr fontId="2"/>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>Template_UE4Defines.h</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lua</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Template_LuaDataTable.lua</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Template_LuaDefines.lua</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -571,7 +583,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -706,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96179D83-B3E9-448E-8D40-FF1D29C5B095}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -820,9 +832,23 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A1:F6">
+  <conditionalFormatting sqref="A1:F7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($A1="#",A$1="#")</formula>
     </cfRule>

--- a/Setting.xlsx
+++ b/Setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_python\excel2csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3840D9E2-C414-42CC-B931-DC811310810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC076857-45E4-4738-9335-33CF6A2B1556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19500" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>int</t>
     <phoneticPr fontId="2"/>
@@ -180,6 +180,38 @@
   </si>
   <si>
     <t>Template_LuaDefines.lua</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>System.Boolean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Godot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Template_GodotDefines.gd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Template_GodotDataTable.gd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CodeTypeName_Godot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\01_python\excel2csv\output_src</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -580,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -591,18 +623,19 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -615,8 +648,11 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -629,8 +665,11 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -643,8 +682,11 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -655,8 +697,11 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -667,8 +712,11 @@
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -679,8 +727,11 @@
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -691,8 +742,11 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -703,10 +757,28 @@
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A1:D9">
+  <conditionalFormatting sqref="A1:E10">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>OR($A1="#",A$1="#")</formula>
     </cfRule>
@@ -718,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96179D83-B3E9-448E-8D40-FF1D29C5B095}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -846,9 +918,27 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A1:F7">
+  <conditionalFormatting sqref="A1:F8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($A1="#",A$1="#")</formula>
     </cfRule>
